--- a/data/trans_dic/P37-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P37-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,72%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>2,15; 5,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>4,02; 8,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>3,27; 7,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>1,48; 7,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>1,28; 4,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>1,88; 5,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>2,18; 5,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>8,14; 17,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>2,07; 4,35</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>3,25; 6,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>3,17; 6,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>5,32; 11,2</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,01%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,76%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>3,19; 6,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,43; 8,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>2,56; 6,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>8,05; 15,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>2,34; 5,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>3,72; 7,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>2,75; 5,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>12,37; 19,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,13; 5,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,5; 7,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>3,06; 5,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>11,21; 16,81</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,31%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,94; 7,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>5,6; 9,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,54; 4,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>13,01; 19,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,81; 8,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>5,46; 9,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,76; 8,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>13,88; 19,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,72; 7,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>5,93; 8,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,41; 5,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>14,27; 18,53</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,43%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,81%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,06%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>5,24; 10,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>6,25; 11,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>5,95; 10,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>14,81; 22,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>3,46; 7,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,3; 9,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>5,24; 9,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>19,97; 25,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>5,02; 7,91</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>6,3; 9,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>5,92; 8,99</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>18,2; 23,29</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,48%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,17%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,37%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,07%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,25%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>14,85; 22,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>15,7; 23,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>15,7; 23,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>33,59; 40,99</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>14,11; 21,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>15,75; 23,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>13,52; 20,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>34,38; 40,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>15,11; 20,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>16,69; 22,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>15,38; 20,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>34,76; 39,77</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,51%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,55%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,63%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,57%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,32%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,22%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,27%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,38%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>47,05; 56,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>58,19; 67,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>51,24; 59,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>77,04; 82,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>48,94; 56,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>52,77; 60,38</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>47,81; 55,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>79,7; 87,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>49,63; 55,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>56,32; 61,85</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>50,3; 56,07</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>79,42; 85,23</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,25%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,29%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,29%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,96%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,53%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,16%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>12,72; 15,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,35; 19,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>14,52; 16,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>29,89; 33,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>14,51; 17,12</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>16,91; 19,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>15,94; 18,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>35,94; 44,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>14,02; 15,75</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>17,03; 18,95</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>15,68; 17,44</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>33,7; 39,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P37-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,61%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>12,1%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
+          <t>7,64%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 7,54</t>
+          <t>1,53; 8,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,14; 17,53</t>
+          <t>8,45; 18,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,32; 11,2</t>
+          <t>5,1; 11,12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>14,53%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>12,97%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,05; 15,79</t>
+          <t>7,95; 15,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,37; 19,82</t>
+          <t>8,84; 18,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,21; 16,81</t>
+          <t>9,76; 15,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>15,8%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>16,31%</t>
+          <t>16,04%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,01; 19,76</t>
+          <t>12,72; 19,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,88; 19,33</t>
+          <t>13,82; 19,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 18,53</t>
+          <t>13,99; 18,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,06%</t>
+          <t>17,88%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,81; 22,94</t>
+          <t>6,37; 21,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,97; 25,1</t>
+          <t>18,07; 24,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,2; 23,29</t>
+          <t>9,9; 21,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>36,78%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>37,05%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>36,91%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,59; 40,99</t>
+          <t>33,09; 40,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,38; 40,63</t>
+          <t>34,05; 40,19</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>34,76; 39,77</t>
+          <t>34,4; 39,46</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>51,51%</t>
+          <t>39,61%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>62,55%</t>
+          <t>57,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>55,49%</t>
+          <t>46,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>79,63%</t>
+          <t>73,15%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>52,92%</t>
+          <t>44,3%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>56,71%</t>
+          <t>47,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>51,59%</t>
+          <t>42,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>82,57%</t>
+          <t>82,34%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>52,32%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>59,22%</t>
+          <t>52,37%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>53,27%</t>
+          <t>44,72%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>81,38%</t>
+          <t>78,88%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>47,05; 56,11</t>
+          <t>34,43; 45,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>58,19; 67,17</t>
+          <t>51,81; 63,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>51,24; 59,54</t>
+          <t>41,69; 52,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>77,04; 82,33</t>
+          <t>69,42; 76,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>48,94; 56,37</t>
+          <t>39,24; 49,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>52,77; 60,38</t>
+          <t>42,47; 52,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>47,81; 55,72</t>
+          <t>37,72; 48,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>79,7; 87,62</t>
+          <t>72,52; 93,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>49,63; 55,33</t>
+          <t>38,45; 45,96</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>56,32; 61,85</t>
+          <t>48,41; 56,45</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>50,3; 56,07</t>
+          <t>41,15; 48,5</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>79,42; 85,23</t>
+          <t>72,44; 90,23</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>68,05%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>68,8%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>66,82%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>88,16%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>61,76%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>18,25%</t>
+          <t>64,77%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>59,8%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>38,29%</t>
+          <t>86,67%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>14,88%</t>
+          <t>64,19%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>66,34%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>62,54%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>35,16%</t>
+          <t>87,26%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>61,05; 73,9</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>62,16; 75,4</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>61,29; 72,37</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>84,75; 91,34</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>55,99; 67,4</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>59,41; 69,42</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>54,21; 65,29</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>84,16; 88,83</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>59,38; 68,05</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>62,45; 70,39</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>58,95; 66,71</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>85,28; 89,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13,88%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17,66%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>15,74%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>29,0%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>15,85%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>18,25%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>17,29%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>39,04%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>14,88%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>17,96%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>16,53%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>34,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>12,72; 15,11</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>16,35; 19,04</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>14,52; 16,93</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>29,89; 33,41</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>22,78; 31,9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>14,51; 17,12</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>16,91; 19,58</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>15,94; 18,83</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>35,94; 44,22</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>34,66; 49,65</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>14,02; 15,75</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>17,03; 18,95</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>15,68; 17,44</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>33,7; 39,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>31,0; 41,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P37-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P37-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,15; 5,42</t>
+          <t>2,07; 5,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,96</t>
+          <t>4,0; 8,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,27; 7,78</t>
+          <t>3,35; 8,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 8,36</t>
+          <t>1,36; 8,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,46</t>
+          <t>1,2; 4,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,64</t>
+          <t>1,83; 5,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 5,94</t>
+          <t>2,19; 5,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,45; 18,11</t>
+          <t>8,14; 18,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,35</t>
+          <t>2,11; 4,32</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,33</t>
+          <t>3,38; 6,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,17</t>
+          <t>3,15; 6,07</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,1; 11,12</t>
+          <t>5,38; 11,6</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,47</t>
+          <t>3,13; 6,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,07</t>
+          <t>4,25; 8,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,11</t>
+          <t>2,68; 6,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,95; 15,76</t>
+          <t>7,79; 15,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 5,57</t>
+          <t>2,42; 5,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 7,31</t>
+          <t>3,64; 7,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,99</t>
+          <t>2,82; 6,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,84; 18,68</t>
+          <t>8,58; 18,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 5,47</t>
+          <t>3,21; 5,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,5; 7,03</t>
+          <t>4,44; 7,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 5,34</t>
+          <t>3,15; 5,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,76; 15,92</t>
+          <t>9,72; 16,11</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,61</t>
+          <t>3,91; 7,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 9,81</t>
+          <t>5,54; 9,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,35</t>
+          <t>1,61; 4,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,72; 19,3</t>
+          <t>12,82; 19,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,61</t>
+          <t>4,52; 8,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,46; 9,28</t>
+          <t>5,4; 9,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,76; 8,78</t>
+          <t>4,68; 8,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,82; 19,2</t>
+          <t>13,87; 19,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 7,51</t>
+          <t>4,74; 7,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,93; 8,89</t>
+          <t>6,03; 8,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,41; 5,77</t>
+          <t>3,52; 5,8</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,99; 18,14</t>
+          <t>13,96; 18,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 10,2</t>
+          <t>5,46; 10,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,25; 11,13</t>
+          <t>6,26; 11,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,95; 10,45</t>
+          <t>5,84; 10,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 21,42</t>
+          <t>6,58; 21,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,46; 7,36</t>
+          <t>3,55; 7,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 9,87</t>
+          <t>5,11; 9,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,24; 9,28</t>
+          <t>5,1; 9,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,07; 24,35</t>
+          <t>17,99; 24,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,91</t>
+          <t>4,88; 8,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,66</t>
+          <t>6,33; 9,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,92; 8,99</t>
+          <t>6,05; 9,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 21,82</t>
+          <t>10,12; 21,84</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,85; 22,87</t>
+          <t>14,71; 22,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>15,7; 23,67</t>
+          <t>15,59; 23,28</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,7; 23,13</t>
+          <t>15,57; 23,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>33,09; 40,48</t>
+          <t>32,91; 41,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,11; 21,91</t>
+          <t>13,92; 21,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,75; 23,36</t>
+          <t>15,41; 22,84</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,52; 20,77</t>
+          <t>13,56; 20,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>34,05; 40,19</t>
+          <t>34,19; 40,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,11; 20,71</t>
+          <t>15,56; 21,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,69; 22,13</t>
+          <t>16,42; 22,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,38; 20,73</t>
+          <t>15,52; 20,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>34,4; 39,46</t>
+          <t>34,45; 39,38</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,43; 45,38</t>
+          <t>34,59; 45,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>51,81; 63,73</t>
+          <t>51,94; 63,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>41,69; 52,98</t>
+          <t>41,41; 52,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>69,42; 76,77</t>
+          <t>69,37; 76,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>39,24; 49,4</t>
+          <t>39,22; 49,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>42,47; 52,95</t>
+          <t>42,39; 53,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>37,72; 48,32</t>
+          <t>38,28; 49,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>72,52; 93,15</t>
+          <t>72,11; 92,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>38,45; 45,96</t>
+          <t>38,42; 45,77</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>48,41; 56,45</t>
+          <t>48,41; 56,3</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>41,15; 48,5</t>
+          <t>40,97; 48,81</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>72,44; 90,23</t>
+          <t>72,44; 88,41</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>61,05; 73,9</t>
+          <t>62,04; 73,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>62,16; 75,4</t>
+          <t>62,36; 74,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>61,29; 72,37</t>
+          <t>61,73; 71,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,75; 91,34</t>
+          <t>84,81; 90,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>55,99; 67,4</t>
+          <t>56,17; 67,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>59,41; 69,42</t>
+          <t>59,43; 69,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>54,21; 65,29</t>
+          <t>54,57; 64,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>84,16; 88,83</t>
+          <t>84,27; 89,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>59,38; 68,05</t>
+          <t>60,0; 68,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>62,45; 70,39</t>
+          <t>62,35; 70,16</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>58,95; 66,71</t>
+          <t>58,48; 66,7</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>85,28; 89,09</t>
+          <t>85,38; 88,97</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,72; 15,11</t>
+          <t>12,68; 14,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,35; 19,04</t>
+          <t>16,36; 19,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,52; 16,93</t>
+          <t>14,53; 17,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>22,78; 31,9</t>
+          <t>22,33; 31,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>14,51; 17,12</t>
+          <t>14,55; 17,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>16,91; 19,58</t>
+          <t>16,95; 19,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>15,94; 18,83</t>
+          <t>15,93; 18,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>34,66; 49,65</t>
+          <t>34,91; 50,92</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>14,02; 15,75</t>
+          <t>14,07; 15,81</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>17,03; 18,95</t>
+          <t>17,03; 18,89</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>15,68; 17,44</t>
+          <t>15,56; 17,43</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>31,0; 41,2</t>
+          <t>30,79; 40,34</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se ha vacunado de la gripe en la última campaña</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17797</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>27515</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22154</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15106</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11439</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14122</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14979</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>39347</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>29236</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>41638</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>37133</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>54452</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10226; 28141</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>18081; 39015</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>14061; 34500</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5438; 34262</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5588; 20263</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7853; 23754</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8664; 23687</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>25509; 57325</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20227; 41480</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>29785; 56372</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>25678; 49481</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>38387; 82756</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>33284</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>41182</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>23892</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>47019</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>23471</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>32439</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23680</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>74303</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>56755</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>73621</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>47572</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>121322</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23047; 46865</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>29170; 56236</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>15853; 35532</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>32974; 66023</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>15107; 35477</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>22207; 45938</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>15866; 34890</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>43907; 95426</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>43619; 74508</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>57572; 91566</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>36327; 63444</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>90847; 150611</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>34930</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>50910</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17911</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>84718</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>44536</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>51336</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>42773</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>88334</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>79466</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>102246</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>60684</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>173052</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>25002; 48198</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>37758; 65915</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10755; 28546</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>68778; 104086</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>31147; 58609</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>38407; 66145</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>30947; 57928</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>75226; 103520</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>62940; 98539</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>83932; 123733</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>46829; 77234</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>150617; 196624</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>38583</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>51680</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>51520</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>131581</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>26398</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>44244</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>45411</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>154476</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>64981</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>95924</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>96931</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>286057</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>28330; 53658</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>38386; 69501</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>37697; 69294</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>58440; 189629</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>18302; 37432</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>31460; 60800</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>33097; 59958</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>128171; 173263</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>50459; 83964</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>77834; 119328</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>78403; 118184</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>161953; 349465</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>71539</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>83454</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>90755</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>206427</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>71337</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>85853</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>84698</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>202107</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>142876</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>169307</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>175453</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>408533</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>56902; 87539</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>66808; 99728</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>74397; 111201</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>184701; 230091</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>56231; 87182</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>68993; 102279</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>67384; 101575</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>186522; 220551</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>123010; 167589</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>143868; 193922</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>151304; 201203</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>381336; 435909</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1029</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>115532</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>178244</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>156383</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>269319</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>151936</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>169403</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>162052</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>500941</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>267468</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>347647</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>318435</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>770260</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>100880; 133083</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>160889; 196496</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>138450; 175257</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>255409; 282244</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>134488; 169823</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>150046; 188285</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>144592; 185319</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>438677; 564187</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>243786; 290486</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>321368; 373699</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>291760; 347571</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>707425; 863323</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>770</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1178</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>142821</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>171186</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>171733</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>249273</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>206225</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>251953</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>239287</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>369069</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>349046</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>423139</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>411020</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>618342</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>130218; 155031</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>155178; 185466</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>158636; 184966</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>239821; 257196</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>187540; 225493</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>231186; 270586</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>218366; 259104</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>358834; 379041</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>326264; 371624</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>397655; 447487</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>384336; 438311</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>604973; 630468</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>459</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>548</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>1328</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2238</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>969</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1150</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1062</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3566</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>454486</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>604171</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>534348</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1003443</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>535342</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>649351</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>612880</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1428576</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>989828</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1253522</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1147228</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>2432019</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>415220; 490166</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>559635; 654722</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>493254; 581097</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>772581; 1102113</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>491392; 576847</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>602855; 697599</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>564712; 659929</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1277459; 1863471</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>936157; 1051755</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1188426; 1318334</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1079768; 1209766</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>2191821; 2871650</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>